--- a/biology/Botanique/Nephrolepis_cordifolia/Nephrolepis_cordifolia.xlsx
+++ b/biology/Botanique/Nephrolepis_cordifolia/Nephrolepis_cordifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nephrolepis[1] cordifolia est une espèce de fougères de la famille des Dryopteridaceae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nephrolepis cordifolia est une espèce de fougères de la famille des Dryopteridaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (8 mars 2024)[3] (attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (8 mars 2024) (attention liste brute contenant possiblement des synonymes) :
 Nephrolepis cordifolia var. compacta Bonap.
 Nephrolepis cordifolia var. lauterbachii Christ
 Nephrolepis cordifolia var. obtusata Sodiro
@@ -546,12 +560,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nephrolepis cordifolia (L.) C.Presl[4].
-L'espèce a été initialement classée dans le genre Polypodium sous le basionyme Polypodium cordifolium L.[4].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Nephrolepide à feuilles cordées[5], Nephrolepis à feuilles cordées[5], Fougère couronne[5], Langue de femme[5], Nephrolepide tubéreuse[5].
-Nephrolepis cordifolia a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nephrolepis cordifolia (L.) C.Presl.
+L'espèce a été initialement classée dans le genre Polypodium sous le basionyme Polypodium cordifolium L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Nephrolepide à feuilles cordées, Nephrolepis à feuilles cordées, Fougère couronne, Langue de femme, Nephrolepide tubéreuse.
+Nephrolepis cordifolia a pour synonymes :
 Aspidium auriculatum (L.) Sw.
 Aspidium auriculatum (L.) Wall.
 Aspidium cordifolium var. tambourinensis (Domin) F.M.Bailey
